--- a/dict1.xlsx
+++ b/dict1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mokrushin\PycharmProjects\Stepik_course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCED0BC2-25CD-4212-90D1-B36D35DD5DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0F8C66-DB2A-40AE-8B7D-1A4C836D5B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3754,14 +3754,14 @@
   <dimension ref="A1:F3472"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" customWidth="1"/>
   </cols>
